--- a/src/main/resources/usershift.xlsx
+++ b/src/main/resources/usershift.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>User Shift Template</t>
   </si>
   <si>
     <t>UserId</t>
-  </si>
-  <si>
-    <t>vaishnavi</t>
-  </si>
-  <si>
-    <t>manisha</t>
-  </si>
-  <si>
-    <t>aditi</t>
   </si>
 </sst>
 </file>
@@ -699,7 +690,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1033,15 +1024,15 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:1">
+    <row r="1" ht="15.5" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,19 +1043,13 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
